--- a/sle/SLE_reactome_results.xlsx
+++ b/sle/SLE_reactome_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>8/21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -441,218 +441,218 @@
         </is>
       </c>
       <c r="E2">
-        <v>0.03896103896103896</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="F2">
-        <v>43.42597402597402</v>
+        <v>55.14409400123687</v>
       </c>
       <c r="G2">
-        <v>11.1943380025061</v>
+        <v>20.71294890381217</v>
       </c>
       <c r="H2">
-        <v>3.673999787694839E-05</v>
+        <v>6.762593572759445E-13</v>
       </c>
       <c r="I2">
-        <v>0.002167659874739955</v>
+        <v>1.007626442341157E-10</v>
       </c>
       <c r="J2">
-        <v>0.0009281683674176437</v>
+        <v>5.837186031223942E-11</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>MX1/USP18/RSAD2</t>
+          <t>MX1/USP18/IRF7/IFIT3/RSAD2/IFIT1/IFITM1/STAT1</t>
         </is>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R-HSA-9758274</t>
+          <t>R-HSA-913531</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regulation of NF-kappa B signaling</t>
+          <t>Interferon Signaling</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>9/21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18/11146</t>
+          <t>269/11146</t>
         </is>
       </c>
       <c r="E3">
-        <v>0.1111111111111111</v>
+        <v>0.03345724907063197</v>
       </c>
       <c r="F3">
-        <v>123.8444444444444</v>
+        <v>17.75783324482209</v>
       </c>
       <c r="G3">
-        <v>15.62998783220839</v>
+        <v>12.08757311859949</v>
       </c>
       <c r="H3">
-        <v>0.0001100039578090912</v>
+        <v>5.546529426340138E-10</v>
       </c>
       <c r="I3">
-        <v>0.003245116755368192</v>
+        <v>4.132164422623403E-08</v>
       </c>
       <c r="J3">
-        <v>0.001389523677588521</v>
+        <v>2.393765331367849E-08</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>MX1/USP18/IRF7/IFIT3/RSAD2/IFIT1/IFITM1/STAT1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R-HSA-445989</t>
+          <t>R-HSA-1169408</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TAK1-dependent IKK and NF-kappa-B activation</t>
+          <t>ISG15 antiviral mechanism</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>45/11146</t>
+          <t>73/11146</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.04444444444444445</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="F4">
-        <v>49.53777777777778</v>
+        <v>29.08284409654272</v>
       </c>
       <c r="G4">
-        <v>9.776435060282324</v>
+        <v>10.45850342605638</v>
       </c>
       <c r="H4">
-        <v>0.0007026478351404833</v>
+        <v>9.31547539264416E-06</v>
       </c>
       <c r="I4">
-        <v>0.01349838878159175</v>
+        <v>0.0004626686111679932</v>
       </c>
       <c r="J4">
-        <v>0.005779863171421981</v>
+        <v>0.0002680242042795864</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>MX1/USP18/IFIT1/STAT1</t>
         </is>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R-HSA-913531</t>
+          <t>R-HSA-1169410</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Interferon Signaling</t>
+          <t>Antiviral mechanism by IFN-stimulated genes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>4/21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>269/11146</t>
+          <t>149/11146</t>
         </is>
       </c>
       <c r="E5">
-        <v>0.01115241635687732</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="F5">
-        <v>12.43048327137546</v>
+        <v>14.24864173857462</v>
       </c>
       <c r="G5">
-        <v>5.686716703022986</v>
+        <v>7.073381007304058</v>
       </c>
       <c r="H5">
-        <v>0.001470990292867334</v>
+        <v>0.0001537806747135871</v>
       </c>
       <c r="I5">
-        <v>0.01349838878159175</v>
+        <v>0.005485108609589884</v>
       </c>
       <c r="J5">
-        <v>0.005779863171421981</v>
+        <v>0.003177526711313108</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>MX1/USP18/RSAD2</t>
+          <t>MX1/USP18/IFIT1/STAT1</t>
         </is>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R-HSA-1169408</t>
+          <t>R-HSA-9683610</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ISG15 antiviral mechanism</t>
+          <t>Maturation of nucleoprotein</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>73/11146</t>
+          <t>11/11146</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.0273972602739726</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="F6">
-        <v>30.53698630136986</v>
+        <v>96.5021645021645</v>
       </c>
       <c r="G6">
-        <v>7.587005291522654</v>
+        <v>13.76778643344078</v>
       </c>
       <c r="H6">
-        <v>0.001840367230425484</v>
+        <v>0.0001840640473016739</v>
       </c>
       <c r="I6">
-        <v>0.01349838878159175</v>
+        <v>0.005485108609589884</v>
       </c>
       <c r="J6">
-        <v>0.005779863171421981</v>
+        <v>0.003177526711313108</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>MX1/USP18</t>
+          <t>PARP9/PARP14</t>
         </is>
       </c>
       <c r="L6">
@@ -662,45 +662,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R-HSA-168142</t>
+          <t>R-HSA-9694631</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Toll Like Receptor 10 (TLR10) Cascade</t>
+          <t>Maturation of nucleoprotein</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>97/11146</t>
+          <t>15/11146</t>
         </is>
       </c>
       <c r="E7">
-        <v>0.02061855670103093</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F7">
-        <v>22.98144329896907</v>
+        <v>70.76825396825396</v>
       </c>
       <c r="G7">
-        <v>6.515623940486964</v>
+        <v>11.74724608246665</v>
       </c>
       <c r="H7">
-        <v>0.003223293121882804</v>
+        <v>0.0003498013479294926</v>
       </c>
       <c r="I7">
-        <v>0.01349838878159175</v>
+        <v>0.008686733473582399</v>
       </c>
       <c r="J7">
-        <v>0.005779863171421981</v>
+        <v>0.005032229917582174</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/PARP14</t>
         </is>
       </c>
       <c r="L7">
@@ -710,41 +710,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R-HSA-168176</t>
+          <t>R-HSA-9758274</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Toll Like Receptor 5 (TLR5) Cascade</t>
+          <t>Regulation of NF-kappa B signaling</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>97/11146</t>
+          <t>18/11146</t>
         </is>
       </c>
       <c r="E8">
-        <v>0.02061855670103093</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F8">
-        <v>22.98144329896907</v>
+        <v>58.97354497354497</v>
       </c>
       <c r="G8">
-        <v>6.515623940486964</v>
+        <v>10.69441973939723</v>
       </c>
       <c r="H8">
-        <v>0.003223293121882804</v>
+        <v>0.0005079762760349107</v>
       </c>
       <c r="I8">
-        <v>0.01349838878159175</v>
+        <v>0.01044702046722248</v>
       </c>
       <c r="J8">
-        <v>0.005779863171421981</v>
+        <v>0.006051965230040572</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -758,45 +758,45 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R-HSA-975871</t>
+          <t>R-HSA-197264</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MyD88 cascade initiated on plasma membrane</t>
+          <t>Nicotinamide salvaging</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97/11146</t>
+          <t>19/11146</t>
         </is>
       </c>
       <c r="E9">
-        <v>0.02061855670103093</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="F9">
-        <v>22.98144329896907</v>
+        <v>55.86967418546366</v>
       </c>
       <c r="G9">
-        <v>6.515623940486964</v>
+        <v>10.39967606302658</v>
       </c>
       <c r="H9">
-        <v>0.003223293121882804</v>
+        <v>0.0005670936588581676</v>
       </c>
       <c r="I9">
-        <v>0.01349838878159175</v>
+        <v>0.01044702046722248</v>
       </c>
       <c r="J9">
-        <v>0.005779863171421981</v>
+        <v>0.006051965230040572</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/PARP14</t>
         </is>
       </c>
       <c r="L9">
@@ -806,49 +806,49 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R-HSA-975138</t>
+          <t>R-HSA-877300</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRAF6 mediated induction of NFkB and MAP kinases upon TLR7/8 or 9 activation</t>
+          <t>Interferon gamma signaling</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>103/11146</t>
+          <t>96/11146</t>
         </is>
       </c>
       <c r="E10">
-        <v>0.01941747572815534</v>
+        <v>0.03125</v>
       </c>
       <c r="F10">
-        <v>21.64271844660194</v>
+        <v>16.58630952380953</v>
       </c>
       <c r="G10">
-        <v>6.306920993680373</v>
+        <v>6.663423988516914</v>
       </c>
       <c r="H10">
-        <v>0.003626152310583916</v>
+        <v>0.0007358597605595753</v>
       </c>
       <c r="I10">
-        <v>0.01349838878159175</v>
+        <v>0.01044702046722248</v>
       </c>
       <c r="J10">
-        <v>0.005779863171421981</v>
+        <v>0.006051965230040572</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>IRF7/STAT1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -864,7 +864,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -873,30 +873,30 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.01923076923076923</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="F11">
-        <v>21.43461538461539</v>
+        <v>15.31043956043956</v>
       </c>
       <c r="G11">
-        <v>6.273858095868303</v>
+        <v>6.370088205539154</v>
       </c>
       <c r="H11">
-        <v>0.003695482702198113</v>
+        <v>0.0009288290202558523</v>
       </c>
       <c r="I11">
-        <v>0.01349838878159175</v>
+        <v>0.01044702046722248</v>
       </c>
       <c r="J11">
-        <v>0.005779863171421981</v>
+        <v>0.006051965230040572</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>USP18/IRF7/NLRC5</t>
         </is>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -912,7 +912,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -921,30 +921,30 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.01886792452830189</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="F12">
-        <v>21.03018867924528</v>
+        <v>15.02156334231806</v>
       </c>
       <c r="G12">
-        <v>6.209102960624563</v>
+        <v>6.301798436658978</v>
       </c>
       <c r="H12">
-        <v>0.003836009720377163</v>
+        <v>0.0009816163474793667</v>
       </c>
       <c r="I12">
-        <v>0.01349838878159175</v>
+        <v>0.01044702046722248</v>
       </c>
       <c r="J12">
-        <v>0.005779863171421981</v>
+        <v>0.006051965230040572</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>USP18/IRF7/NLRC5</t>
         </is>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -960,7 +960,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -969,74 +969,74 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.01851851851851852</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="F13">
-        <v>20.64074074074074</v>
+        <v>14.74338624338624</v>
       </c>
       <c r="G13">
-        <v>6.14610493839286</v>
+        <v>6.235339558608145</v>
       </c>
       <c r="H13">
-        <v>0.003979018770495198</v>
+        <v>0.001036274815522186</v>
       </c>
       <c r="I13">
-        <v>0.01349838878159175</v>
+        <v>0.01044702046722248</v>
       </c>
       <c r="J13">
-        <v>0.005779863171421981</v>
+        <v>0.006051965230040572</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>USP18/IRF7/NLRC5</t>
         </is>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R-HSA-166166</t>
+          <t>R-HSA-912694</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MyD88-independent TLR4 cascade</t>
+          <t>Regulation of IFNA/IFNB signaling</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>111/11146</t>
+          <t>26/11146</t>
         </is>
       </c>
       <c r="E14">
-        <v>0.01801801801801802</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="F14">
-        <v>20.08288288288288</v>
+        <v>40.82783882783883</v>
       </c>
       <c r="G14">
-        <v>6.054729296222187</v>
+        <v>8.833253523216817</v>
       </c>
       <c r="H14">
-        <v>0.004198169698878712</v>
+        <v>0.001069276118712948</v>
       </c>
       <c r="I14">
-        <v>0.01349838878159175</v>
+        <v>0.01044702046722248</v>
       </c>
       <c r="J14">
-        <v>0.005779863171421981</v>
+        <v>0.006051965230040572</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>USP18/STAT1</t>
         </is>
       </c>
       <c r="L14">
@@ -1046,17 +1046,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R-HSA-168138</t>
+          <t>R-HSA-166166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Toll Like Receptor 9 (TLR9) Cascade</t>
+          <t>MyD88-independent TLR4 cascade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1065,46 +1065,46 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.01801801801801802</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F15">
-        <v>20.08288288288288</v>
+        <v>14.34491634491635</v>
       </c>
       <c r="G15">
-        <v>6.054729296222187</v>
+        <v>6.138904117613914</v>
       </c>
       <c r="H15">
-        <v>0.004198169698878712</v>
+        <v>0.001121827701178252</v>
       </c>
       <c r="I15">
-        <v>0.01349838878159175</v>
+        <v>0.01044702046722248</v>
       </c>
       <c r="J15">
-        <v>0.005779863171421981</v>
+        <v>0.006051965230040572</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>USP18/IRF7/NLRC5</t>
         </is>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R-HSA-937061</t>
+          <t>R-HSA-168138</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRIF (TICAM1)-mediated TLR4 signaling</t>
+          <t>Toll Like Receptor 9 (TLR9) Cascade</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1113,122 +1113,122 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.01801801801801802</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F16">
-        <v>20.08288288288288</v>
+        <v>14.34491634491635</v>
       </c>
       <c r="G16">
-        <v>6.054729296222187</v>
+        <v>6.138904117613914</v>
       </c>
       <c r="H16">
-        <v>0.004198169698878712</v>
+        <v>0.001121827701178252</v>
       </c>
       <c r="I16">
-        <v>0.01349838878159175</v>
+        <v>0.01044702046722248</v>
       </c>
       <c r="J16">
-        <v>0.005779863171421981</v>
+        <v>0.006051965230040572</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>USP18/IRF7/NLRC5</t>
         </is>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R-HSA-166058</t>
+          <t>R-HSA-937061</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MyD88:MAL(TIRAP) cascade initiated on plasma membrane</t>
+          <t>TRIF (TICAM1)-mediated TLR4 signaling</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>113/11146</t>
+          <t>111/11146</t>
         </is>
       </c>
       <c r="E17">
-        <v>0.01769911504424779</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F17">
-        <v>19.72743362831859</v>
+        <v>14.34491634491635</v>
       </c>
       <c r="G17">
-        <v>5.995785734449762</v>
+        <v>6.138904117613914</v>
       </c>
       <c r="H17">
-        <v>0.00434735093930753</v>
+        <v>0.001121827701178252</v>
       </c>
       <c r="I17">
-        <v>0.01349838878159175</v>
+        <v>0.01044702046722248</v>
       </c>
       <c r="J17">
-        <v>0.005779863171421981</v>
+        <v>0.006051965230040572</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>USP18/IRF7/NLRC5</t>
         </is>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R-HSA-168188</t>
+          <t>R-HSA-9683701</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Toll Like Receptor TLR6:TLR2 Cascade</t>
+          <t>Translation of Structural Proteins</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>113/11146</t>
+          <t>29/11146</t>
         </is>
       </c>
       <c r="E18">
-        <v>0.01769911504424779</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="F18">
-        <v>19.72743362831859</v>
+        <v>36.60426929392447</v>
       </c>
       <c r="G18">
-        <v>5.995785734449762</v>
+        <v>8.340785397386552</v>
       </c>
       <c r="H18">
-        <v>0.00434735093930753</v>
+        <v>0.001331231555247687</v>
       </c>
       <c r="I18">
-        <v>0.01349838878159175</v>
+        <v>0.01166785304305326</v>
       </c>
       <c r="J18">
-        <v>0.005779863171421981</v>
+        <v>0.006759194274322622</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/PARP14</t>
         </is>
       </c>
       <c r="L18">
@@ -1238,45 +1238,45 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R-HSA-9020702</t>
+          <t>R-HSA-196807</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Interleukin-1 signaling</t>
+          <t>Nicotinate metabolism</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/21</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>115/11146</t>
+          <t>31/11146</t>
         </is>
       </c>
       <c r="E19">
-        <v>0.01739130434782609</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F19">
-        <v>19.38434782608696</v>
+        <v>34.24270353302612</v>
       </c>
       <c r="G19">
-        <v>5.938340981308637</v>
+        <v>8.052340364632933</v>
       </c>
       <c r="H19">
-        <v>0.004498987938129903</v>
+        <v>0.001521229556165467</v>
       </c>
       <c r="I19">
-        <v>0.01349838878159175</v>
+        <v>0.01259240021492526</v>
       </c>
       <c r="J19">
-        <v>0.005779863171421981</v>
+        <v>0.007294785006173585</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/PARP14</t>
         </is>
       </c>
       <c r="L19">
@@ -1286,137 +1286,137 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R-HSA-168179</t>
+          <t>R-HSA-9694516</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Toll Like Receptor TLR1:TLR2 Cascade</t>
+          <t>SARS-CoV-2 Infection</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/21</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>116/11146</t>
+          <t>299/11146</t>
         </is>
       </c>
       <c r="E20">
-        <v>0.01724137931034483</v>
+        <v>0.01337792642140468</v>
       </c>
       <c r="F20">
-        <v>19.21724137931034</v>
+        <v>7.100493709189362</v>
       </c>
       <c r="G20">
-        <v>5.91016051964214</v>
+        <v>4.645638708186929</v>
       </c>
       <c r="H20">
-        <v>0.004575725010709067</v>
+        <v>0.002117304756253169</v>
       </c>
       <c r="I20">
-        <v>0.01349838878159175</v>
+        <v>0.01660412677272222</v>
       </c>
       <c r="J20">
-        <v>0.005779863171421981</v>
+        <v>0.009618780610125201</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/IRF7/PARP14/STAT1</t>
         </is>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R-HSA-181438</t>
+          <t>R-HSA-166016</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Toll Like Receptor 2 (TLR2) Cascade</t>
+          <t>Toll Like Receptor 4 (TLR4) Cascade</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>116/11146</t>
+          <t>147/11146</t>
         </is>
       </c>
       <c r="E21">
-        <v>0.01724137931034483</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="F21">
-        <v>19.21724137931034</v>
+        <v>10.83187560738581</v>
       </c>
       <c r="G21">
-        <v>5.91016051964214</v>
+        <v>5.213364802610122</v>
       </c>
       <c r="H21">
-        <v>0.004575725010709067</v>
+        <v>0.002511289558708529</v>
       </c>
       <c r="I21">
-        <v>0.01349838878159175</v>
+        <v>0.01870910721237854</v>
       </c>
       <c r="J21">
-        <v>0.005779863171421981</v>
+        <v>0.01083819704284734</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>USP18/IRF7/NLRC5</t>
         </is>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R-HSA-166016</t>
+          <t>R-HSA-445989</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Toll Like Receptor 4 (TLR4) Cascade</t>
+          <t>TAK1-dependent IKK and NF-kappa-B activation</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>147/11146</t>
+          <t>45/11146</t>
         </is>
       </c>
       <c r="E22">
-        <v>0.01360544217687075</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="F22">
-        <v>15.16462585034014</v>
+        <v>23.58941798941799</v>
       </c>
       <c r="G22">
-        <v>5.180391701655148</v>
+        <v>6.596748410390225</v>
       </c>
       <c r="H22">
-        <v>0.007253108208888797</v>
+        <v>0.003187725319548726</v>
       </c>
       <c r="I22">
-        <v>0.01996710526588025</v>
+        <v>0.02261767012441715</v>
       </c>
       <c r="J22">
-        <v>0.008549697170046854</v>
+        <v>0.01310242988486193</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1430,93 +1430,93 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R-HSA-1169410</t>
+          <t>R-HSA-168898</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Antiviral mechanism by IFN-stimulated genes</t>
+          <t>Toll-like Receptor Cascades</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>149/11146</t>
+          <t>172/11146</t>
         </is>
       </c>
       <c r="E23">
-        <v>0.01342281879194631</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="F23">
-        <v>14.96107382550336</v>
+        <v>9.257475083056478</v>
       </c>
       <c r="G23">
-        <v>5.141031567571364</v>
+        <v>4.741641238567285</v>
       </c>
       <c r="H23">
-        <v>0.007445361285582468</v>
+        <v>0.003914672357481288</v>
       </c>
       <c r="I23">
-        <v>0.01996710526588025</v>
+        <v>0.02651300823930508</v>
       </c>
       <c r="J23">
-        <v>0.008549697170046854</v>
+        <v>0.01535900159394572</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>MX1/USP18</t>
+          <t>USP18/IRF7/NLRC5</t>
         </is>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R-HSA-446652</t>
+          <t>R-HSA-9694635</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Interleukin-1 family signaling</t>
+          <t>Translation of Structural Proteins</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>153/11146</t>
+          <t>57/11146</t>
         </is>
       </c>
       <c r="E24">
-        <v>0.0130718954248366</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="F24">
-        <v>14.56993464052288</v>
+        <v>18.62322472848788</v>
       </c>
       <c r="G24">
-        <v>5.064549061308613</v>
+        <v>5.79530489400352</v>
       </c>
       <c r="H24">
-        <v>0.007836830475046243</v>
+        <v>0.005069599335746635</v>
       </c>
       <c r="I24">
-        <v>0.02010317382729254</v>
+        <v>0.03284218700114124</v>
       </c>
       <c r="J24">
-        <v>0.008607960247190384</v>
+        <v>0.0190254986513146</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/PARP14</t>
         </is>
       </c>
       <c r="L24">
@@ -1526,241 +1526,97 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R-HSA-168898</t>
+          <t>R-HSA-9679506</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Toll-like Receptor Cascades</t>
+          <t>SARS-CoV Infections</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>172/11146</t>
+          <t>414/11146</t>
         </is>
       </c>
       <c r="E25">
-        <v>0.01162790697674419</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="F25">
-        <v>12.96046511627907</v>
+        <v>5.12813434552565</v>
       </c>
       <c r="G25">
-        <v>4.737020231120601</v>
+        <v>3.718890019804196</v>
       </c>
       <c r="H25">
-        <v>0.009821460120081419</v>
+        <v>0.006793828210622558</v>
       </c>
       <c r="I25">
-        <v>0.02319702776940001</v>
+        <v>0.04217835014094838</v>
       </c>
       <c r="J25">
-        <v>0.009932714834355046</v>
+        <v>0.02443394356451973</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/IRF7/PARP14/STAT1</t>
         </is>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R-HSA-9683610</t>
+          <t>R-HSA-9772573</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Maturation of nucleoprotein</t>
+          <t>Late SARS-CoV-2 Infection Events</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/21</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11/11146</t>
+          <t>70/11146</t>
         </is>
       </c>
       <c r="E26">
-        <v>0.09090909090909091</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="F26">
-        <v>101.3272727272727</v>
+        <v>15.16462585034014</v>
       </c>
       <c r="G26">
-        <v>9.975752457014963</v>
+        <v>5.164904881327048</v>
       </c>
       <c r="H26">
-        <v>0.009829249054830513</v>
+        <v>0.007559049355013537</v>
       </c>
       <c r="I26">
-        <v>0.02319702776940001</v>
+        <v>0.04505193415588068</v>
       </c>
       <c r="J26">
-        <v>0.009932714834355046</v>
+        <v>0.02609861250994148</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>PARP9</t>
+          <t>PARP9/PARP14</t>
         </is>
       </c>
       <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>R-HSA-9694631</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Maturation of nucleoprotein</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1/10</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>15/11146</t>
-        </is>
-      </c>
-      <c r="E27">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="F27">
-        <v>74.30666666666666</v>
-      </c>
-      <c r="G27">
-        <v>8.51329015532299</v>
-      </c>
-      <c r="H27">
-        <v>0.01338190551371976</v>
-      </c>
-      <c r="I27">
-        <v>0.03036663174267176</v>
-      </c>
-      <c r="J27">
-        <v>0.01300266122790584</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>PARP9</t>
-        </is>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>R-HSA-197264</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Nicotinamide salvaging</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1/10</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>19/11146</t>
-        </is>
-      </c>
-      <c r="E28">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="F28">
-        <v>58.66315789473684</v>
-      </c>
-      <c r="G28">
-        <v>7.538094964335868</v>
-      </c>
-      <c r="H28">
-        <v>0.01692308586160696</v>
-      </c>
-      <c r="I28">
-        <v>0.03698007651240039</v>
-      </c>
-      <c r="J28">
-        <v>0.01583446630325797</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>PARP9</t>
-        </is>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>R-HSA-912694</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Regulation of IFNA/IFNB signaling</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1/10</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>26/11146</t>
-        </is>
-      </c>
-      <c r="E29">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="F29">
-        <v>42.86923076923078</v>
-      </c>
-      <c r="G29">
-        <v>6.404786946715829</v>
-      </c>
-      <c r="H29">
-        <v>0.02309263618104807</v>
-      </c>
-      <c r="I29">
-        <v>0.04865948338149414</v>
-      </c>
-      <c r="J29">
-        <v>0.02083546121598322</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>USP18</t>
-        </is>
-      </c>
-      <c r="L29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
